--- a/src/data/CompareSQL1.xlsx
+++ b/src/data/CompareSQL1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uc260386\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uc260386\database-compare-preprocessor - AWS\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4ACD7E-B975-46BC-AD6C-6BE6B20F0EE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B5F93C-2657-4107-A0A8-5759D1482B1A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A36C948-5437-438E-AEE2-ED1985E484AC}"/>
   </bookViews>
@@ -42,13 +42,13 @@
     <t>CCPASDI_QUOTE</t>
   </si>
   <si>
-    <t>select * from CCPASDI.QUOTE_BKP order by QUOTEPERMID</t>
-  </si>
-  <si>
     <t>CCPOLLSDI_QUOTE</t>
   </si>
   <si>
-    <t>select * from CCPOLLSDI.BIM_QUOTE order by OBJECTID</t>
+    <t>select QUOTEPERMID,TICKER,MINLOTSIZE,MIFIDOPTIONTYPE,STRIKEPRICE from CCPASDI.QUOTE_BKP order by QUOTEPERMID</t>
+  </si>
+  <si>
+    <t>select OBJECTID,TICKER, MINLOTSIZE, MIFIDOPTIONTYPE,STRIKEPRICE from (select CCPOLLSDI.QUOTE.*,row_number() over(partition by OBJECTID order by EFFECTIVETO desc) rown from CCPOLLSDI.QUOTE) b where b.rown=1</t>
   </si>
 </sst>
 </file>
@@ -84,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +407,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,21 +427,21 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>15926220</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
